--- a/xlsx/country_comparison/field_wish_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_wish_manual_positive.xlsx
@@ -62,36 +62,36 @@
     <t xml:space="preserve">Other topic; unclear; vague</t>
   </si>
   <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Happiness; peace of mind</t>
   </si>
   <si>
-    <t xml:space="preserve">Family; children; childcare</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
   <si>
+    <t xml:space="preserve">Work; (un)employment; business</t>
+  </si>
+  <si>
     <t xml:space="preserve">War; peace</t>
   </si>
   <si>
     <t xml:space="preserve">Relationships; love; emotions</t>
   </si>
   <si>
-    <t xml:space="preserve">Work; (un)employment; business</t>
+    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
     <t xml:space="preserve">Housing</t>
   </si>
   <si>
-    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
   </si>
   <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
-    <t xml:space="preserve">Old age; retirement; ageing society</t>
-  </si>
-  <si>
     <t xml:space="preserve">International issues</t>
   </si>
   <si>
@@ -101,31 +101,31 @@
     <t xml:space="preserve">Own country referred</t>
   </si>
   <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
-    <t xml:space="preserve">Education</t>
+    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religion; sin; God</t>
   </si>
   <si>
     <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
-    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Religion; sin; God</t>
-  </si>
-  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
+    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Global poverty; hunger; global inequality</t>
   </si>
   <si>
     <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
   </si>
   <si>
     <t xml:space="preserve">Social division; fake news; (social) media</t>
@@ -509,16 +509,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.301818303772289</v>
+        <v>0.305167503726807</v>
       </c>
       <c r="C2" t="n">
-        <v>0.259049654426674</v>
+        <v>0.258761627032315</v>
       </c>
       <c r="D2" t="n">
         <v>0.300420242330779</v>
       </c>
       <c r="E2" t="n">
-        <v>0.227498974114122</v>
+        <v>0.226550397089218</v>
       </c>
       <c r="F2" t="n">
         <v>0.304562408510836</v>
@@ -530,19 +530,19 @@
         <v>0.221484622600785</v>
       </c>
       <c r="I2" t="n">
-        <v>0.197803154564558</v>
+        <v>0.196724986229979</v>
       </c>
       <c r="J2" t="n">
-        <v>0.238747011148192</v>
+        <v>0.246542816285486</v>
       </c>
       <c r="K2" t="n">
-        <v>0.237992490548052</v>
+        <v>0.231866407939066</v>
       </c>
       <c r="L2" t="n">
         <v>0.488377675299691</v>
       </c>
       <c r="M2" t="n">
-        <v>0.386567372555889</v>
+        <v>0.369663566190465</v>
       </c>
     </row>
     <row r="3">
@@ -550,16 +550,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.220805064830286</v>
+        <v>0.209345357429996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.251786750110397</v>
+        <v>0.251254622854761</v>
       </c>
       <c r="D3" t="n">
         <v>0.213511266295448</v>
       </c>
       <c r="E3" t="n">
-        <v>0.312767486152196</v>
+        <v>0.311463374550567</v>
       </c>
       <c r="F3" t="n">
         <v>0.204413172927153</v>
@@ -571,19 +571,19 @@
         <v>0.260338871679323</v>
       </c>
       <c r="I3" t="n">
-        <v>0.281636172300635</v>
+        <v>0.280101054200446</v>
       </c>
       <c r="J3" t="n">
-        <v>0.271665656793525</v>
+        <v>0.268883595436956</v>
       </c>
       <c r="K3" t="n">
-        <v>0.107732180672494</v>
+        <v>0.104394710097287</v>
       </c>
       <c r="L3" t="n">
         <v>0.0423311701619492</v>
       </c>
       <c r="M3" t="n">
-        <v>0.232168932905398</v>
+        <v>0.219752272056253</v>
       </c>
     </row>
     <row r="4">
@@ -591,16 +591,16 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.136531638117913</v>
+        <v>0.129578526063909</v>
       </c>
       <c r="C4" t="n">
-        <v>0.130427130474187</v>
+        <v>0.130151485187177</v>
       </c>
       <c r="D4" t="n">
         <v>0.164871780673757</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0872558610400526</v>
+        <v>0.0868920400364939</v>
       </c>
       <c r="F4" t="n">
         <v>0.108135265709463</v>
@@ -612,19 +612,19 @@
         <v>0.123022353291949</v>
       </c>
       <c r="I4" t="n">
-        <v>0.114807511970853</v>
+        <v>0.11418172910985</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0983208597553887</v>
+        <v>0.0973139799469555</v>
       </c>
       <c r="K4" t="n">
-        <v>0.180288520983137</v>
+        <v>0.158716113560022</v>
       </c>
       <c r="L4" t="n">
         <v>0.0975231339777544</v>
       </c>
       <c r="M4" t="n">
-        <v>0.143191118857092</v>
+        <v>0.12064952423738</v>
       </c>
     </row>
     <row r="5">
@@ -632,40 +632,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0926070524597021</v>
+        <v>0.103809757099905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.110431672156761</v>
+        <v>0.0805047156056912</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0859089141499604</v>
+        <v>0.0642431357248424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0687141191354527</v>
+        <v>0.0493795156127248</v>
       </c>
       <c r="F5" t="n">
-        <v>0.167426814417068</v>
+        <v>0.0790175487136934</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0682672612067064</v>
+        <v>0.0704616855286346</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0527643053785641</v>
+        <v>0.0623610047458639</v>
       </c>
       <c r="I5" t="n">
-        <v>0.219762711990323</v>
+        <v>0.1726627214067</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0772841753576254</v>
+        <v>0.0231273687081518</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0418107247279651</v>
+        <v>0.0793382935559037</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0497664158698036</v>
+        <v>0.113142160596415</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0816094669909956</v>
+        <v>0.140044385549358</v>
       </c>
     </row>
     <row r="6">
@@ -673,40 +673,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0919829569253761</v>
+        <v>0.0963733664474096</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0806752149696202</v>
+        <v>0.110198285361728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0642431357248424</v>
+        <v>0.0859089141499604</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0495862699358817</v>
+        <v>0.0684276095590812</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0790175487136934</v>
+        <v>0.167426814417068</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0704616855286346</v>
+        <v>0.0682672612067064</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0623610047458639</v>
+        <v>0.0527643053785641</v>
       </c>
       <c r="I6" t="n">
-        <v>0.173609014413757</v>
+        <v>0.218564848398559</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0233666609515388</v>
+        <v>0.076492727074193</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0819304886694427</v>
+        <v>0.0344718658707956</v>
       </c>
       <c r="L6" t="n">
-        <v>0.113142160596415</v>
+        <v>0.0497664158698036</v>
       </c>
       <c r="M6" t="n">
-        <v>0.117012868320931</v>
+        <v>0.10982154951323</v>
       </c>
     </row>
     <row r="7">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.079976724053907</v>
+        <v>0.0731025450256386</v>
       </c>
       <c r="C7" t="n">
-        <v>0.104166289478657</v>
+        <v>0.103946143971693</v>
       </c>
       <c r="D7" t="n">
         <v>0.104297892989315</v>
       </c>
       <c r="E7" t="n">
-        <v>0.165684923687645</v>
+        <v>0.164994085794441</v>
       </c>
       <c r="F7" t="n">
         <v>0.0584792505686835</v>
@@ -735,19 +735,19 @@
         <v>0.106051632827495</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0918485804359256</v>
+        <v>0.0913479401341063</v>
       </c>
       <c r="J7" t="n">
-        <v>0.125821114310997</v>
+        <v>0.124532611140973</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0756694280554428</v>
+        <v>0.0657696559271618</v>
       </c>
       <c r="L7" t="n">
         <v>0.0296770223257473</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0430038084276899</v>
+        <v>0.0443427994293685</v>
       </c>
     </row>
     <row r="8">
@@ -755,40 +755,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0605136243095065</v>
+        <v>0.065340722609202</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0828321229953244</v>
+        <v>0.0463435111192669</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0565003850423185</v>
+        <v>0.0434937701249851</v>
       </c>
       <c r="E8" t="n">
-        <v>0.166327564880556</v>
+        <v>0.0296506363896702</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0345155207865451</v>
+        <v>0.100409373499998</v>
       </c>
       <c r="G8" t="n">
-        <v>0.101067547341708</v>
+        <v>0.0365854732590564</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0697270934185644</v>
+        <v>0.0423295814493755</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0453861122967655</v>
+        <v>0.0344096143601005</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0775409125749795</v>
+        <v>0.0263590712149952</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0516665273354774</v>
+        <v>0.00795316828167779</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00673748124484501</v>
+        <v>0.223276872441282</v>
       </c>
       <c r="M8" t="n">
-        <v>0.025324606149859</v>
+        <v>0.0938897207202107</v>
       </c>
     </row>
     <row r="9">
@@ -796,40 +796,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0592119075602155</v>
+        <v>0.061445541489069</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0472985417013593</v>
+        <v>0.0826570652122257</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0569949768816429</v>
+        <v>0.0565003850423185</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0601529272940923</v>
+        <v>0.165634047438255</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0461627613436605</v>
+        <v>0.0345155207865451</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0294389257577583</v>
+        <v>0.101067547341708</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0311626171361015</v>
+        <v>0.0697270934185644</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0466076046902567</v>
+        <v>0.0451387255995426</v>
       </c>
       <c r="J9" t="n">
-        <v>0.022741173162452</v>
+        <v>0.0767468351086772</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0133617924134159</v>
+        <v>0.0748469462170757</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0604335319183326</v>
+        <v>0.00673748124484501</v>
       </c>
       <c r="M9" t="n">
-        <v>0.100860772974415</v>
+        <v>0.0369255390001181</v>
       </c>
     </row>
     <row r="10">
@@ -837,40 +837,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0591972602248934</v>
+        <v>0.0597986806813758</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0464416611358047</v>
+        <v>0.0471985807495615</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0434937701249851</v>
+        <v>0.0569949768816429</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0297747849800695</v>
+        <v>0.0599021143617085</v>
       </c>
       <c r="F10" t="n">
-        <v>0.100409373499998</v>
+        <v>0.0461627613436605</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0365854732590564</v>
+        <v>0.0294389257577583</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0423295814493755</v>
+        <v>0.0311626171361015</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0345981992334259</v>
+        <v>0.0463535599878948</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0266318009562913</v>
+        <v>0.0225082863860923</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0027872758659299</v>
+        <v>0.00836805306399144</v>
       </c>
       <c r="L10" t="n">
-        <v>0.223276872441282</v>
+        <v>0.0604335319183326</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0737002635349104</v>
+        <v>0.0951441760846864</v>
       </c>
     </row>
     <row r="11">
@@ -878,40 +878,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.050392431773596</v>
+        <v>0.0486928194808884</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0448632886341353</v>
+        <v>0.0305397156964364</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0321012257579764</v>
+        <v>0.0385367035532483</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0271677193566726</v>
+        <v>0.0287885789072079</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0670588267540571</v>
+        <v>0.0411895583061621</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0935454374559169</v>
+        <v>0.0262991045983345</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0568063011918302</v>
+        <v>0.00874637502182839</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0282518235706768</v>
+        <v>0.0300713312659178</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0232274949876892</v>
+        <v>0.0535545474733412</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00725094984168189</v>
+        <v>0.189473131823819</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0926003669856957</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0713608289640494</v>
+        <v>0.0188988508953785</v>
       </c>
     </row>
     <row r="12">
@@ -919,40 +919,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0420117711314859</v>
+        <v>0.0456044018162936</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0303443963647716</v>
+        <v>0.0450279236732598</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0385367035532483</v>
+        <v>0.0321012257579764</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0289091180229273</v>
+        <v>0.0270544411561835</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0411895583061621</v>
+        <v>0.0670588267540571</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0262991045983345</v>
+        <v>0.0935454374559169</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00874637502182839</v>
+        <v>0.0568063011918302</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0302361398028041</v>
+        <v>0.028097830973162</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0437619481319933</v>
+        <v>0.0332303826269594</v>
       </c>
       <c r="K12" t="n">
-        <v>0.198148289163516</v>
+        <v>0.00608809786476778</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.0926003669856957</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0195605405985871</v>
+        <v>0.057103579294232</v>
       </c>
     </row>
     <row r="13">
@@ -960,40 +960,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0280772036288894</v>
+        <v>0.0321710343157891</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0314684752239338</v>
+        <v>0.0152456131340154</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0643383770316956</v>
+        <v>0.0193907013531595</v>
       </c>
       <c r="E13" t="n">
-        <v>0.027814884989085</v>
+        <v>0.0270124795465584</v>
       </c>
       <c r="F13" t="n">
-        <v>0.034770430248861</v>
+        <v>0.00972811481898141</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00874035316771856</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0121171760857021</v>
+        <v>0.0177632303432919</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0198176281559046</v>
+        <v>0.005112415955683</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0560470254008093</v>
+        <v>0.0237616339483929</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0160447439829275</v>
+        <v>0.0843481860019069</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.0235201180350777</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0281329176871408</v>
+        <v>0.032134150647137</v>
       </c>
     </row>
     <row r="14">
@@ -1001,40 +1001,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0274209923901588</v>
+        <v>0.0289522703492238</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0152779015201367</v>
+        <v>0.0314019696061735</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0193907013531595</v>
+        <v>0.0643383770316956</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0271255820518409</v>
+        <v>0.0276989083744488</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00972811481898141</v>
+        <v>0.034770430248861</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.00874035316771856</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0177632303432919</v>
+        <v>0.0121171760857021</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0051404349943534</v>
+        <v>0.0197096079416103</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0240074887521021</v>
+        <v>0.0554730615609974</v>
       </c>
       <c r="K14" t="n">
-        <v>0.065916361735039</v>
+        <v>0.0303002098084516</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0235201180350777</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0360279291029496</v>
+        <v>0.0286049071325584</v>
       </c>
     </row>
     <row r="15">
@@ -1042,16 +1042,16 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0253209409648119</v>
+        <v>0.0260307455980265</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0271630226409909</v>
+        <v>0.0271056161861779</v>
       </c>
       <c r="D15" t="n">
         <v>0.0320330943467687</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0375905467875007</v>
+        <v>0.0374338096893444</v>
       </c>
       <c r="F15" t="n">
         <v>0.0119818938889459</v>
@@ -1063,19 +1063,19 @@
         <v>0.0331802652648323</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0274157641416407</v>
+        <v>0.0272663286645834</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0369970151818443</v>
+        <v>0.0366181378240631</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0308299488819689</v>
+        <v>0.0348067666131663</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00707923891690306</v>
+        <v>0.00707923891690307</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0239638137854237</v>
+        <v>0.0232668735741422</v>
       </c>
     </row>
     <row r="16">
@@ -1083,16 +1083,16 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0162977876504818</v>
+        <v>0.0199022826699902</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0210018515377111</v>
+        <v>0.0209574661297533</v>
       </c>
       <c r="D16" t="n">
         <v>0.0234180314020245</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0411187429420747</v>
+        <v>0.0409472947190677</v>
       </c>
       <c r="F16" t="n">
         <v>0.0126177934600883</v>
@@ -1104,19 +1104,19 @@
         <v>0.00449445341905546</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0133161781451069</v>
+        <v>0.0132435954724732</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0491008132910436</v>
+        <v>0.0485979839056681</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0202984622749359</v>
+        <v>0.0284273379297504</v>
       </c>
       <c r="L16" t="n">
         <v>0.010574837529585</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00387846044253323</v>
+        <v>0.0162396210400966</v>
       </c>
     </row>
     <row r="17">
@@ -1124,40 +1124,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0156048117942338</v>
+        <v>0.0157404306354235</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0182560704371407</v>
+        <v>0.0182174879753704</v>
       </c>
       <c r="D17" t="n">
         <v>0.0130666883013268</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0339082334480025</v>
+        <v>0.0337668500798836</v>
       </c>
       <c r="F17" t="n">
         <v>0.00605430370446363</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00854526139642591</v>
+        <v>0.00854526139642592</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0341912975157251</v>
+        <v>0.0340049305471054</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0223008450732668</v>
+        <v>0.0220724675888639</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0265658395699335</v>
+        <v>0.0346794691570164</v>
       </c>
       <c r="L17" t="n">
         <v>0.016920197235149</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00708700596512245</v>
+        <v>0.00512048079750335</v>
       </c>
     </row>
     <row r="18">
@@ -1165,40 +1165,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0126184296454113</v>
+        <v>0.0142175331352354</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0168524051730042</v>
+        <v>0.0106720711209565</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0139222439113153</v>
+        <v>0.00524296891944997</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0376448646547346</v>
+        <v>0.0128628592401703</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00442501167389179</v>
+        <v>0.0100541749075469</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00886914804769541</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.0164690716363846</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0167041808176554</v>
+        <v>0.0172003529243287</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0502165818432263</v>
+        <v>0.00482929797119076</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0109350115741184</v>
+        <v>0.0158360341822675</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00227223461078527</v>
+        <v>0.0415316581753094</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00626457541459214</v>
+        <v>0.0148417213802622</v>
       </c>
     </row>
     <row r="19">
@@ -1206,40 +1206,40 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0123069751218637</v>
+        <v>0.0119311574679294</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0106946732918261</v>
+        <v>0.016816789223747</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00524296891944997</v>
+        <v>0.0139222439113153</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0129167166286655</v>
+        <v>0.0374879010734431</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0100541749075469</v>
+        <v>0.00442501167389179</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.00886914804769541</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0164690716363846</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0172946209490569</v>
+        <v>0.0166131311129512</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00487926533064672</v>
+        <v>0.0497023261457856</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00367557985868457</v>
+        <v>0.0161944727033603</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0415316581753094</v>
+        <v>0.00227223461078527</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0123676830907714</v>
+        <v>0.00550012771179542</v>
       </c>
     </row>
     <row r="20">
@@ -1247,40 +1247,40 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0099447440490147</v>
+        <v>0.0108643912877849</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0114390492339932</v>
+        <v>0.0104396541856837</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0195605544441232</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.012314879211739</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0133344953685124</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.00836841888463836</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0275250442975946</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00885449571287987</v>
+        <v>0.0279348954838469</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0161188902033491</v>
+        <v>0.0857419596440255</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0159024782603776</v>
+        <v>0.0178905950177546</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00521621287121915</v>
+        <v>0.00970687292969557</v>
       </c>
     </row>
     <row r="21">
@@ -1288,40 +1288,40 @@
         <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00959430704476874</v>
+        <v>0.0102802591358082</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00955284822222358</v>
+        <v>0.004152057551721</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.00432857497574059</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0123664421824281</v>
+        <v>0.00356381867843006</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.00580456485867381</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00836841888463836</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.00651504458674876</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0226074084425568</v>
+        <v>0.00441178750495705</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0866291070810959</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.021738311848097</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.0226247303667499</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00797068871678208</v>
+        <v>0.0202964573060928</v>
       </c>
     </row>
     <row r="22">
@@ -1329,40 +1329,40 @@
         <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00929334909900149</v>
+        <v>0.00991875630604155</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00416085111326878</v>
+        <v>0.0123618341029996</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00432857497574059</v>
+        <v>0.0195605544441232</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00357874055260338</v>
+        <v>0.00416958814252859</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00580456485867381</v>
+        <v>0.0133344953685124</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00651504458674876</v>
+        <v>0.0275250442975946</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00443596668868907</v>
+        <v>0.00880623239312996</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.0159538206024477</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0222089954434199</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0226247303667499</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0208523757985578</v>
+        <v>0.00317846031839816</v>
       </c>
     </row>
     <row r="23">
@@ -1370,16 +1370,16 @@
         <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00849349457358789</v>
+        <v>0.00787904269996205</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00803939460605194</v>
+        <v>0.00802240411315741</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0194897176819379</v>
+        <v>0.0194084535861901</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1391,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0154474725937551</v>
+        <v>0.0153632728455937</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0421960630711673</v>
+        <v>0.0417639435391836</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0086401018164174</v>
+        <v>0.0121518855976962</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0101879903078886</v>
+        <v>0.00683745116286617</v>
       </c>
     </row>
     <row r="24">
@@ -1411,25 +1411,25 @@
         <v>35</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00567276710782467</v>
+        <v>0.00715477208185916</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0044668946688715</v>
+        <v>0.00357602646822307</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.00416552116728006</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.00427296953256535</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0119818938889459</v>
+        <v>0.0056347013434544</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.00937927698737093</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0196314217862357</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00290222251812266</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00940668102830376</v>
+        <v>0.0149906413974109</v>
       </c>
     </row>
     <row r="25">
@@ -1452,40 +1452,40 @@
         <v>36</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00427253849809884</v>
+        <v>0.00650864065713601</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00567191225257258</v>
+        <v>0.00445745431349014</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00416552116728006</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0101490248158555</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.0119818938889459</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00619169422988159</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00425192160277293</v>
+        <v>0.0196314217862357</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00424646735526766</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0268197904865893</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.00194962752511066</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00400617325145047</v>
+        <v>0.011438977415091</v>
       </c>
     </row>
     <row r="26">
@@ -1493,40 +1493,40 @@
         <v>37</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00399148927374754</v>
+        <v>0.00590718098037806</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00358360006479612</v>
+        <v>0.00565992520758374</v>
       </c>
       <c r="D26" t="n">
         <v>0.00416552116728006</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00429086065427064</v>
+        <v>0.0101067075623251</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0056347013434544</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00937927698737093</v>
+        <v>0.00619169422988159</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.00425192160277293</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.00422332107811981</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.0265451355906238</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.00207812954947284</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00826665425606001</v>
+        <v>0.0083580315691645</v>
       </c>
     </row>
     <row r="27">
@@ -1534,16 +1534,16 @@
         <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00396707961990688</v>
+        <v>0.0037366292577536</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00415759558509581</v>
+        <v>0.00414880890379598</v>
       </c>
       <c r="D27" t="n">
         <v>0.00454803616621594</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00760791802168921</v>
+        <v>0.00757619613691664</v>
       </c>
       <c r="F27" t="n">
         <v>0.00579239712129128</v>
@@ -1558,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0257178487826439</v>
+        <v>0.0254544786013822</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.00196369932362005</v>
       </c>
       <c r="L27" t="n">
         <v>0.00201417446474313</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00584815630978838</v>
+        <v>0.00414388315946322</v>
       </c>
     </row>
     <row r="28">
@@ -1575,10 +1575,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>0.000584967669093331</v>
+        <v>0.00153797106366453</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000873230415530474</v>
+        <v>0.000871384926423721</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0.00130412985576931</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.00296292466552973</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_wish_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_wish_manual_positive.xlsx
@@ -638,7 +638,7 @@
         <v>0.0805047156056912</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0642431357248424</v>
+        <v>0.0642431357248425</v>
       </c>
       <c r="E5" t="n">
         <v>0.0493795156127248</v>
@@ -764,13 +764,13 @@
         <v>0.0434937701249851</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0296506363896702</v>
+        <v>0.0296506363896703</v>
       </c>
       <c r="F8" t="n">
         <v>0.100409373499998</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0365854732590564</v>
+        <v>0.0365854732590563</v>
       </c>
       <c r="H8" t="n">
         <v>0.0423295814493755</v>
@@ -820,7 +820,7 @@
         <v>0.0451387255995426</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0767468351086772</v>
+        <v>0.0767468351086771</v>
       </c>
       <c r="K9" t="n">
         <v>0.0748469462170757</v>
@@ -987,7 +987,7 @@
         <v>0.0237616339483929</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0843481860019069</v>
+        <v>0.084348186001907</v>
       </c>
       <c r="L13" t="n">
         <v>0.0235201180350777</v>
@@ -1010,7 +1010,7 @@
         <v>0.0643383770316956</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0276989083744488</v>
+        <v>0.0276989083744487</v>
       </c>
       <c r="F14" t="n">
         <v>0.034770430248861</v>
@@ -1104,7 +1104,7 @@
         <v>0.00449445341905546</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0132435954724732</v>
+        <v>0.0132435954724733</v>
       </c>
       <c r="J16" t="n">
         <v>0.0485979839056681</v>
@@ -1239,7 +1239,7 @@
         <v>0.00227223461078527</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00550012771179542</v>
+        <v>0.00550012771179541</v>
       </c>
     </row>
     <row r="20">
@@ -1455,7 +1455,7 @@
         <v>0.00650864065713601</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00445745431349014</v>
+        <v>0.00445745431349015</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00194962752511066</v>
+        <v>0.00194962752511067</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>

--- a/xlsx/country_comparison/field_wish_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_wish_manual_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
     <t xml:space="preserve">War; peace</t>
   </si>
   <si>
@@ -83,9 +89,6 @@
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
-    <t xml:space="preserve">Housing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Old age; retirement; ageing society</t>
   </si>
   <si>
@@ -98,22 +101,22 @@
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
     <t xml:space="preserve">Own country referred</t>
   </si>
   <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
     <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
   </si>
   <si>
+    <t xml:space="preserve">Corruption; criticism of the government</t>
+  </si>
+  <si>
     <t xml:space="preserve">Religion; sin; God</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
@@ -503,751 +506,808 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.305167503726807</v>
+        <v>0.318039723883217</v>
       </c>
       <c r="C2" t="n">
         <v>0.258761627032315</v>
       </c>
       <c r="D2" t="n">
-        <v>0.300420242330779</v>
+        <v>0.303820030701568</v>
       </c>
       <c r="E2" t="n">
-        <v>0.226550397089218</v>
+        <v>0.215917524241521</v>
       </c>
       <c r="F2" t="n">
-        <v>0.304562408510836</v>
+        <v>0.299055903799577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.337023176586753</v>
+        <v>0.352700884513603</v>
       </c>
       <c r="H2" t="n">
-        <v>0.221484622600785</v>
+        <v>0.217616252389032</v>
       </c>
       <c r="I2" t="n">
-        <v>0.196724986229979</v>
+        <v>0.19516237035147</v>
       </c>
       <c r="J2" t="n">
-        <v>0.246542816285486</v>
+        <v>0.249104182431355</v>
       </c>
       <c r="K2" t="n">
-        <v>0.231866407939066</v>
+        <v>0.233870138625791</v>
       </c>
       <c r="L2" t="n">
-        <v>0.488377675299691</v>
+        <v>0.390879952191181</v>
       </c>
       <c r="M2" t="n">
-        <v>0.369663566190465</v>
+        <v>0.485047585374262</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.37310662764096</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.209345357429996</v>
+        <v>0.206652326350047</v>
       </c>
       <c r="C3" t="n">
         <v>0.251254622854761</v>
       </c>
       <c r="D3" t="n">
-        <v>0.213511266295448</v>
+        <v>0.203209100330186</v>
       </c>
       <c r="E3" t="n">
-        <v>0.311463374550567</v>
+        <v>0.327417796064791</v>
       </c>
       <c r="F3" t="n">
-        <v>0.204413172927153</v>
+        <v>0.20827015763023</v>
       </c>
       <c r="G3" t="n">
-        <v>0.195081020609441</v>
+        <v>0.193404824044703</v>
       </c>
       <c r="H3" t="n">
-        <v>0.260338871679323</v>
+        <v>0.262444679250233</v>
       </c>
       <c r="I3" t="n">
-        <v>0.280101054200446</v>
+        <v>0.292822456320702</v>
       </c>
       <c r="J3" t="n">
-        <v>0.268883595436956</v>
+        <v>0.262607152827275</v>
       </c>
       <c r="K3" t="n">
-        <v>0.104394710097287</v>
+        <v>0.103116133984567</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0423311701619492</v>
+        <v>0.193341340511091</v>
       </c>
       <c r="M3" t="n">
-        <v>0.219752272056253</v>
+        <v>0.0374995004189149</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.219064017096829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.129578526063909</v>
+        <v>0.128843387356894</v>
       </c>
       <c r="C4" t="n">
         <v>0.130151485187177</v>
       </c>
       <c r="D4" t="n">
-        <v>0.164871780673757</v>
+        <v>0.172212627958452</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0868920400364939</v>
+        <v>0.0894305594105209</v>
       </c>
       <c r="F4" t="n">
-        <v>0.108135265709463</v>
+        <v>0.105077718572195</v>
       </c>
       <c r="G4" t="n">
-        <v>0.240664659225588</v>
+        <v>0.238301977410893</v>
       </c>
       <c r="H4" t="n">
-        <v>0.123022353291949</v>
+        <v>0.126109446704303</v>
       </c>
       <c r="I4" t="n">
-        <v>0.11418172910985</v>
+        <v>0.11304990059555</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0973139799469555</v>
+        <v>0.0965745120597885</v>
       </c>
       <c r="K4" t="n">
-        <v>0.158716113560022</v>
+        <v>0.156883229254967</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0975231339777544</v>
+        <v>0.130565948509649</v>
       </c>
       <c r="M4" t="n">
-        <v>0.12064952423738</v>
+        <v>0.0965841410661449</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.120578992814147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.103809757099905</v>
+        <v>0.101392989192798</v>
       </c>
       <c r="C5" t="n">
         <v>0.0805047156056912</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0642431357248425</v>
+        <v>0.0580083525776831</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0493795156127248</v>
+        <v>0.0469566119142215</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0790175487136934</v>
+        <v>0.0779075963979214</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0704616855286346</v>
+        <v>0.0643014622827474</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0623610047458639</v>
+        <v>0.0657261125244879</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1726627214067</v>
+        <v>0.161312595512688</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0231273687081518</v>
+        <v>0.0228772899632852</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0793382935559037</v>
+        <v>0.0790061947230164</v>
       </c>
       <c r="L5" t="n">
-        <v>0.113142160596415</v>
+        <v>0.0933752852267575</v>
       </c>
       <c r="M5" t="n">
-        <v>0.140044385549358</v>
+        <v>0.12215148140293</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.140886082580227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0963733664474096</v>
+        <v>0.0968628175154011</v>
       </c>
       <c r="C6" t="n">
         <v>0.110198285361728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0859089141499604</v>
+        <v>0.0910388737670251</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0684276095590812</v>
+        <v>0.0720339943638089</v>
       </c>
       <c r="F6" t="n">
-        <v>0.167426814417068</v>
+        <v>0.169860491270958</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0682672612067064</v>
+        <v>0.0593759624676805</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0527643053785641</v>
+        <v>0.0518357377263457</v>
       </c>
       <c r="I6" t="n">
-        <v>0.218564848398559</v>
+        <v>0.211395179003838</v>
       </c>
       <c r="J6" t="n">
-        <v>0.076492727074193</v>
+        <v>0.0766942476842639</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0344718658707956</v>
+        <v>0.0363877620691878</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0497664158698036</v>
+        <v>0.0982844681282666</v>
       </c>
       <c r="M6" t="n">
-        <v>0.10982154951323</v>
+        <v>0.0466858650491405</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.109551591107819</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0731025450256386</v>
+        <v>0.0721802030102887</v>
       </c>
       <c r="C7" t="n">
         <v>0.103946143971693</v>
       </c>
       <c r="D7" t="n">
-        <v>0.104297892989315</v>
+        <v>0.102080675482165</v>
       </c>
       <c r="E7" t="n">
-        <v>0.164994085794441</v>
+        <v>0.159341615345209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0584792505686835</v>
+        <v>0.0581830233028225</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0466374345686505</v>
+        <v>0.0476202299485075</v>
       </c>
       <c r="H7" t="n">
-        <v>0.106051632827495</v>
+        <v>0.0991210839065216</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0913479401341063</v>
+        <v>0.0963010718580082</v>
       </c>
       <c r="J7" t="n">
-        <v>0.124532611140973</v>
+        <v>0.12393285230531</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0657696559271618</v>
+        <v>0.0691584760814055</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0296770223257473</v>
+        <v>0.0647984213658269</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0443427994293685</v>
+        <v>0.0243953293086662</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0441381827642675</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.065340722609202</v>
+        <v>0.0710450089373968</v>
       </c>
       <c r="C8" t="n">
         <v>0.0463435111192669</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0434937701249851</v>
+        <v>0.0440357526478236</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0296506363896703</v>
+        <v>0.0248625635673195</v>
       </c>
       <c r="F8" t="n">
-        <v>0.100409373499998</v>
+        <v>0.101996308326419</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0365854732590563</v>
+        <v>0.0414931972606644</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0423295814493755</v>
+        <v>0.0468837507784083</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0344096143601005</v>
+        <v>0.0390680929811231</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0263590712149952</v>
+        <v>0.0260396831495458</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00795316828167779</v>
+        <v>0.00798115970769641</v>
       </c>
       <c r="L8" t="n">
-        <v>0.223276872441282</v>
+        <v>0.102392210863532</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0938897207202107</v>
+        <v>0.219313321633378</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0932668838907811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.061445541489069</v>
+        <v>0.0683468485603272</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0826570652122257</v>
+        <v>0.0450279236732598</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0565003850423185</v>
+        <v>0.0289095551903122</v>
       </c>
       <c r="E9" t="n">
-        <v>0.165634047438255</v>
+        <v>0.0259143468749078</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0345155207865451</v>
+        <v>0.0724317411445413</v>
       </c>
       <c r="G9" t="n">
-        <v>0.101067547341708</v>
+        <v>0.0962210457349959</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0697270934185644</v>
+        <v>0.0557386355681838</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0451387255995426</v>
+        <v>0.0271515200101643</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0767468351086771</v>
+        <v>0.0296248251626386</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0748469462170757</v>
+        <v>0.00580080916822828</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00673748124484501</v>
+        <v>0.193449754048744</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0369255390001181</v>
+        <v>0.0934567996621049</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0576837182503186</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0597986806813758</v>
+        <v>0.0549410104652577</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0471985807495615</v>
+        <v>0.0826570652122257</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0569949768816429</v>
+        <v>0.054967486091971</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0599021143617085</v>
+        <v>0.170315415638054</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0461627613436605</v>
+        <v>0.0360377962333682</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0294389257577583</v>
+        <v>0.0820319162023524</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0311626171361015</v>
+        <v>0.0602781501614749</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0463535599878948</v>
+        <v>0.0490317247302642</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0225082863860923</v>
+        <v>0.0769595584369929</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00836805306399144</v>
+        <v>0.0773076752855269</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0604335319183326</v>
+        <v>0.0176579144102982</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0951441760846864</v>
+        <v>0.00802709288617979</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0372980612242726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0486928194808884</v>
+        <v>0.054300646171479</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0305397156964364</v>
+        <v>0.0471985807495615</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0385367035532483</v>
+        <v>0.0551600148840323</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0287885789072079</v>
+        <v>0.0672977570359916</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0411895583061621</v>
+        <v>0.0418334110316897</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0262991045983345</v>
+        <v>0.0232244771474228</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00874637502182839</v>
+        <v>0.0401771154094926</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0300713312659178</v>
+        <v>0.0423053614372445</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0535545474733412</v>
+        <v>0.0203351500523427</v>
       </c>
       <c r="K11" t="n">
-        <v>0.189473131823819</v>
+        <v>0.0093237116197731</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.0215401452774182</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0188988508953785</v>
+        <v>0.0519800786551737</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0929902748447206</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0456044018162936</v>
+        <v>0.0411181128890902</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0450279236732598</v>
+        <v>0.0305397156964364</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0321012257579764</v>
+        <v>0.0339727542886035</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0270544411561835</v>
+        <v>0.0252614285544599</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0670588267540571</v>
+        <v>0.0450748720878285</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0935454374559169</v>
+        <v>0.029765818683876</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0568063011918302</v>
+        <v>0.010047341274191</v>
       </c>
       <c r="I12" t="n">
-        <v>0.028097830973162</v>
+        <v>0.0358063990511329</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0332303826269594</v>
+        <v>0.048637680257474</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00608809786476778</v>
+        <v>0.186205447713814</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0926003669856957</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.057103579294232</v>
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0188664082675968</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0321710343157891</v>
+        <v>0.0278603415243641</v>
       </c>
       <c r="C13" t="n">
         <v>0.0152456131340154</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0193907013531595</v>
+        <v>0.0184527438125758</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0270124795465584</v>
+        <v>0.0256341173053098</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00972811481898141</v>
+        <v>0.00990144072394165</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0177632303432919</v>
+        <v>0.0173916342644055</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005112415955683</v>
+        <v>0.00296550976565621</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0237616339483929</v>
+        <v>0.0221922671154846</v>
       </c>
       <c r="K13" t="n">
-        <v>0.084348186001907</v>
+        <v>0.0835615309762997</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0235201180350777</v>
+        <v>0.00466364579848074</v>
       </c>
       <c r="M13" t="n">
-        <v>0.032134150647137</v>
+        <v>0.0237987851418613</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0332813882417541</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0289522703492238</v>
+        <v>0.0272087353522786</v>
       </c>
       <c r="C14" t="n">
         <v>0.0314019696061735</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0643383770316956</v>
+        <v>0.0658137159582523</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0276989083744487</v>
+        <v>0.0302460829483768</v>
       </c>
       <c r="F14" t="n">
-        <v>0.034770430248861</v>
+        <v>0.0359504021482408</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00874035316771856</v>
+        <v>0.00569534276921702</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0121171760857021</v>
+        <v>0.00780579533206224</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0197096079416103</v>
+        <v>0.0186684428787963</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0554730615609974</v>
+        <v>0.0577341856086574</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0303002098084516</v>
+        <v>0.0284555932674594</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.0161536766452273</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0286049071325584</v>
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0269994713651541</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0260307455980265</v>
+        <v>0.0230390555319131</v>
       </c>
       <c r="C15" t="n">
         <v>0.0271056161861779</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0320330943467687</v>
+        <v>0.0273253282233729</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0374338096893444</v>
+        <v>0.0366806699033242</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0119818938889459</v>
+        <v>0.0114868918379781</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00619169422988159</v>
+        <v>0.00812661283648955</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0331802652648323</v>
+        <v>0.0225156447942265</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0272663286645834</v>
+        <v>0.0285535395011491</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0366181378240631</v>
+        <v>0.0393579915904469</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0348067666131663</v>
+        <v>0.0349113588023303</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00707923891690307</v>
+        <v>0.00579138798460832</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0232668735741422</v>
+        <v>0.0051437934666298</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0236084228659676</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0199022826699902</v>
+        <v>0.0172872758128822</v>
       </c>
       <c r="C16" t="n">
         <v>0.0209574661297533</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0234180314020245</v>
+        <v>0.027027470706467</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0409472947190677</v>
+        <v>0.0404085191656122</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0126177934600883</v>
+        <v>0.0127214479494416</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0111493497503043</v>
+        <v>0.0163783318238937</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00449445341905546</v>
+        <v>0.00372640093061384</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0132435954724733</v>
+        <v>0.0120272377931902</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0485979839056681</v>
+        <v>0.0415969337313292</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0284273379297504</v>
+        <v>0.0282965349196334</v>
       </c>
       <c r="L16" t="n">
-        <v>0.010574837529585</v>
+        <v>0.00442478072253368</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0162396210400966</v>
+        <v>0.0111450747904804</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0142415375678837</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0157404306354235</v>
+        <v>0.0167914848450078</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0182174879753704</v>
+        <v>0.0106720711209565</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0130666883013268</v>
+        <v>0.00570579874076226</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0337668500798836</v>
+        <v>0.0105549779506667</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00605430370446363</v>
+        <v>0.0113959123064546</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00854526139642592</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.0182442441406989</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0340049305471054</v>
+        <v>0.0165381999797526</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0220724675888639</v>
+        <v>0.00525623197146928</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0346794691570164</v>
+        <v>0.0152410127560419</v>
       </c>
       <c r="L17" t="n">
-        <v>0.016920197235149</v>
+        <v>0.0306336727454044</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00512048079750335</v>
+        <v>0.0438999816503496</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0151052624399329</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0142175331352354</v>
+        <v>0.014048906505199</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0106720711209565</v>
+        <v>0.0182174879753704</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00524296891944997</v>
+        <v>0.0155647306397834</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0128628592401703</v>
+        <v>0.0324653530682308</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0100541749075469</v>
+        <v>0.00662046531259391</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.0049722734877305</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0164690716363846</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0172003529243287</v>
+        <v>0.0387806968621397</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00482929797119076</v>
+        <v>0.0201816874065124</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0158360341822675</v>
+        <v>0.0355919697656437</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0415316581753094</v>
+        <v>0.00543642274047023</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0148417213802622</v>
+        <v>0.0174053417506772</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.00574549437932503</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0119311574679294</v>
+        <v>0.010073770787975</v>
       </c>
       <c r="C19" t="n">
         <v>0.016816789223747</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0139222439113153</v>
+        <v>0.0131141649928023</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0374879010734431</v>
+        <v>0.0343600118858747</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00442501167389179</v>
+        <v>0.00381991796205146</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00886914804769541</v>
+        <v>0.00821056373241131</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0166131311129512</v>
+        <v>0.0167482723956592</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0497023261457856</v>
+        <v>0.0500740246028686</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0161944727033603</v>
+        <v>0.0138907740970073</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00227223461078527</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00550012771179541</v>
+        <v>0.00215398338783978</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.00628716409715648</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0108643912877849</v>
+        <v>0.0092231932235611</v>
       </c>
       <c r="C20" t="n">
         <v>0.0104396541856837</v>
@@ -1256,121 +1316,130 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.012314879211739</v>
+        <v>0.0135972587856951</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00836841888463836</v>
+        <v>0.00622476756360903</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0279348954838469</v>
+        <v>0.0244861316416174</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0857419596440255</v>
+        <v>0.0925731800941652</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0178905950177546</v>
+        <v>0.019397180388733</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00970687292969557</v>
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.00930251314674438</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0102802591358082</v>
+        <v>0.0088261199189776</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004152057551721</v>
+        <v>0.0123618341029996</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00432857497574059</v>
+        <v>0.0176165892070421</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00356381867843006</v>
+        <v>0.00478498119416813</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00580456485867381</v>
+        <v>0.0156533663258663</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00651504458674876</v>
+        <v>0.0203760763201093</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00441178750495705</v>
+        <v>0.00792185047473038</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.0134201907187844</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0216218242440329</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0226247303667499</v>
+        <v>0.00336318400236858</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0202964573060928</v>
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0029390747474396</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00991875630604155</v>
+        <v>0.00873305329107636</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0123618341029996</v>
+        <v>0.004152057551721</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0195605544441232</v>
+        <v>0.00360020301398228</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00416958814252859</v>
+        <v>0.0032718469503967</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0133344953685124</v>
+        <v>0.00511417380371708</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0275250442975946</v>
+        <v>0.00740187396793866</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00880623239312996</v>
+        <v>0.00370161545801142</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0159538206024477</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0222089954434199</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00317846031839816</v>
+        <v>0.0260755592276189</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0195752913355339</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00787904269996205</v>
+        <v>0.00665217675824329</v>
       </c>
       <c r="C23" t="n">
         <v>0.00802240411315741</v>
@@ -1379,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0194084535861901</v>
+        <v>0.014928312952425</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1391,42 +1460,45 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0153632728455937</v>
+        <v>0.0148692341801712</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0417639435391836</v>
+        <v>0.0445704933556825</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0121518855976962</v>
+        <v>0.0120216080678328</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00683745116286617</v>
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.00699115840963048</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00715477208185916</v>
+        <v>0.00603200505229008</v>
       </c>
       <c r="C24" t="n">
         <v>0.00357602646822307</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00416552116728006</v>
+        <v>0.00546344682065765</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00427296953256535</v>
+        <v>0.00450401614046821</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0056347013434544</v>
+        <v>0.00494941073202395</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00937927698737093</v>
+        <v>0.00704187449853556</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1444,18 +1516,21 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0149906413974109</v>
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0156019891178501</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00650864065713601</v>
+        <v>0.00552775872990874</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00445745431349015</v>
+        <v>0.00445745431349014</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1464,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0119818938889459</v>
+        <v>0.0114868918379781</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0196314217862357</v>
+        <v>0.013417107952477</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1479,74 +1554,80 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00194962752511067</v>
+        <v>0.0016281742013196</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.011438977415091</v>
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0101835689909683</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00590718098037806</v>
+        <v>0.00498317554894562</v>
       </c>
       <c r="C26" t="n">
         <v>0.00565992520758374</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00416552116728006</v>
+        <v>0.00546344682065765</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0101067075623251</v>
+        <v>0.011330710168479</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00619169422988159</v>
+        <v>0.00812661283648955</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00425192160277293</v>
+        <v>0.00632094034357712</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00422332107811981</v>
+        <v>0.00373518304083577</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0265451355906238</v>
+        <v>0.0236723492253296</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00207812954947284</v>
+        <v>0.00263556401579406</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0083580315691645</v>
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0087114723988624</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0037366292577536</v>
+        <v>0.00315592610221137</v>
       </c>
       <c r="C27" t="n">
         <v>0.00414880890379598</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00454803616621594</v>
+        <v>0.00416298594522594</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00757619613691664</v>
+        <v>0.00745749106316793</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00579239712129128</v>
+        <v>0.00483407762823664</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1558,24 +1639,27 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0254544786013822</v>
+        <v>0.0204232108617799</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00196369932362005</v>
+        <v>0.00174726338562258</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00201417446474313</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00414388315946322</v>
+        <v>0.0042117413869093</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0042518444184108</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00153797106366453</v>
+        <v>0.00131674343750076</v>
       </c>
       <c r="C28" t="n">
         <v>0.000871384926423721</v>
@@ -1590,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00886914804769541</v>
+        <v>0.00821056373241131</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1605,10 +1689,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00130412985576931</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00296292466552973</v>
+        <v>0.00119185440730027</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00272867806732078</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_wish_manual_positive.xlsx
+++ b/xlsx/country_comparison/field_wish_manual_positive.xlsx
@@ -515,7 +515,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.318039723883217</v>
+        <v>0.318283771754971</v>
       </c>
       <c r="C2" t="n">
         <v>0.258761627032315</v>
@@ -545,7 +545,7 @@
         <v>0.233870138625791</v>
       </c>
       <c r="L2" t="n">
-        <v>0.390879952191181</v>
+        <v>0.393386825008222</v>
       </c>
       <c r="M2" t="n">
         <v>0.485047585374262</v>
@@ -559,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.206652326350047</v>
+        <v>0.206814043603505</v>
       </c>
       <c r="C3" t="n">
         <v>0.251254622854761</v>
@@ -589,7 +589,7 @@
         <v>0.103116133984567</v>
       </c>
       <c r="L3" t="n">
-        <v>0.193341340511091</v>
+        <v>0.194289269757889</v>
       </c>
       <c r="M3" t="n">
         <v>0.0374995004189149</v>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.128843387356894</v>
+        <v>0.128662654903479</v>
       </c>
       <c r="C4" t="n">
         <v>0.130151485187177</v>
@@ -633,7 +633,7 @@
         <v>0.156883229254967</v>
       </c>
       <c r="L4" t="n">
-        <v>0.130565948509649</v>
+        <v>0.127916281953087</v>
       </c>
       <c r="M4" t="n">
         <v>0.0965841410661449</v>
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.101392989192798</v>
+        <v>0.10149346482855</v>
       </c>
       <c r="C5" t="n">
         <v>0.0805047156056912</v>
@@ -677,7 +677,7 @@
         <v>0.0790061947230164</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0933752852267575</v>
+        <v>0.0945340990032005</v>
       </c>
       <c r="M5" t="n">
         <v>0.12215148140293</v>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0968628175154011</v>
+        <v>0.0962567507048621</v>
       </c>
       <c r="C6" t="n">
         <v>0.110198285361728</v>
@@ -721,7 +721,7 @@
         <v>0.0363877620691878</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0982844681282666</v>
+        <v>0.0949461838094963</v>
       </c>
       <c r="M6" t="n">
         <v>0.0466858650491405</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0721802030102887</v>
+        <v>0.0723657680303404</v>
       </c>
       <c r="C7" t="n">
         <v>0.103946143971693</v>
@@ -765,7 +765,7 @@
         <v>0.0691584760814055</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0647984213658269</v>
+        <v>0.0663554373583319</v>
       </c>
       <c r="M7" t="n">
         <v>0.0243953293086662</v>
@@ -779,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0710450089373968</v>
+        <v>0.0712321671049816</v>
       </c>
       <c r="C8" t="n">
         <v>0.0463435111192669</v>
@@ -809,7 +809,7 @@
         <v>0.00798115970769641</v>
       </c>
       <c r="L8" t="n">
-        <v>0.102392210863532</v>
+        <v>0.104200536620787</v>
       </c>
       <c r="M8" t="n">
         <v>0.219313321633378</v>
@@ -823,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0683468485603272</v>
+        <v>0.068255735842145</v>
       </c>
       <c r="C9" t="n">
         <v>0.0450279236732598</v>
@@ -853,7 +853,7 @@
         <v>0.00580080916822828</v>
       </c>
       <c r="L9" t="n">
-        <v>0.193449754048744</v>
+        <v>0.194078961347091</v>
       </c>
       <c r="M9" t="n">
         <v>0.0934567996621049</v>
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0549410104652577</v>
+        <v>0.0549542949027489</v>
       </c>
       <c r="C10" t="n">
         <v>0.0826570652122257</v>
@@ -897,7 +897,7 @@
         <v>0.0773076752855269</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0176579144102982</v>
+        <v>0.017349997286826</v>
       </c>
       <c r="M10" t="n">
         <v>0.00802709288617979</v>
@@ -911,10 +911,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.054300646171479</v>
+        <v>0.0543512482866862</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0471985807495615</v>
+        <v>0.0471985807495616</v>
       </c>
       <c r="D11" t="n">
         <v>0.0551600148840323</v>
@@ -941,7 +941,7 @@
         <v>0.0093237116197731</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0215401452774182</v>
+        <v>0.0216828671538411</v>
       </c>
       <c r="M11" t="n">
         <v>0.0519800786551737</v>
@@ -955,7 +955,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0411181128890902</v>
+        <v>0.0411363718559998</v>
       </c>
       <c r="C12" t="n">
         <v>0.0305397156964364</v>
@@ -999,7 +999,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0278603415243641</v>
+        <v>0.0278705761191577</v>
       </c>
       <c r="C13" t="n">
         <v>0.0152456131340154</v>
@@ -1029,7 +1029,7 @@
         <v>0.0835615309762997</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00466364579848074</v>
+        <v>0.00456628316348252</v>
       </c>
       <c r="M13" t="n">
         <v>0.0237987851418613</v>
@@ -1043,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0272087353522786</v>
+        <v>0.0272145252013467</v>
       </c>
       <c r="C14" t="n">
         <v>0.0314019696061735</v>
@@ -1073,7 +1073,7 @@
         <v>0.0284555932674594</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0161536766452273</v>
+        <v>0.0161378670840629</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0230390555319131</v>
+        <v>0.0230454730080093</v>
       </c>
       <c r="C15" t="n">
         <v>0.0271056161861779</v>
@@ -1117,7 +1117,7 @@
         <v>0.0349113588023303</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00579138798460832</v>
+        <v>0.00565224288230249</v>
       </c>
       <c r="M15" t="n">
         <v>0.0051437934666298</v>
@@ -1131,7 +1131,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0172872758128822</v>
+        <v>0.0173027444419536</v>
       </c>
       <c r="C16" t="n">
         <v>0.0209574661297533</v>
@@ -1161,7 +1161,7 @@
         <v>0.0282965349196334</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00442478072253368</v>
+        <v>0.00451154618745538</v>
       </c>
       <c r="M16" t="n">
         <v>0.0111450747904804</v>
@@ -1175,7 +1175,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0167914848450078</v>
+        <v>0.0167996096694622</v>
       </c>
       <c r="C17" t="n">
         <v>0.0106720711209565</v>
@@ -1205,7 +1205,7 @@
         <v>0.0152410127560419</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0306336727454044</v>
+        <v>0.0303009532083844</v>
       </c>
       <c r="M17" t="n">
         <v>0.0438999816503496</v>
@@ -1219,7 +1219,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.014048906505199</v>
+        <v>0.0140573968505306</v>
       </c>
       <c r="C18" t="n">
         <v>0.0182174879753704</v>
@@ -1249,7 +1249,7 @@
         <v>0.0355919697656437</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00543642274047023</v>
+        <v>0.0055166146725408</v>
       </c>
       <c r="M18" t="n">
         <v>0.0174053417506772</v>
@@ -1263,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.010073770787975</v>
+        <v>0.0100782441607674</v>
       </c>
       <c r="C19" t="n">
         <v>0.016816789223747</v>
@@ -1307,7 +1307,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0092231932235611</v>
+        <v>0.00922728888768664</v>
       </c>
       <c r="C20" t="n">
         <v>0.0104396541856837</v>
@@ -1351,7 +1351,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0088261199189776</v>
+        <v>0.00883211431324001</v>
       </c>
       <c r="C21" t="n">
         <v>0.0123618341029996</v>
@@ -1381,7 +1381,7 @@
         <v>0.0216218242440329</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00336318400236858</v>
+        <v>0.00340352204027691</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00873305329107636</v>
+        <v>0.00873693130297568</v>
       </c>
       <c r="C22" t="n">
         <v>0.004152057551721</v>
@@ -1439,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00665217675824329</v>
+        <v>0.00665513073318939</v>
       </c>
       <c r="C23" t="n">
         <v>0.00802240411315741</v>
@@ -1483,7 +1483,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00603200505229008</v>
+        <v>0.00603468363291817</v>
       </c>
       <c r="C24" t="n">
         <v>0.00357602646822307</v>
@@ -1527,7 +1527,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00552775872990874</v>
+        <v>0.00553021339420732</v>
       </c>
       <c r="C25" t="n">
         <v>0.00445745431349014</v>
@@ -1571,7 +1571,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00498317554894562</v>
+        <v>0.00498538838487266</v>
       </c>
       <c r="C26" t="n">
         <v>0.00565992520758374</v>
@@ -1615,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00315592610221137</v>
+        <v>0.00315732752718495</v>
       </c>
       <c r="C27" t="n">
         <v>0.00414880890379598</v>
@@ -1659,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00131674343750076</v>
+        <v>0.00131732815243937</v>
       </c>
       <c r="C28" t="n">
         <v>0.000871384926423721</v>
